--- a/app/uniqueName.xlsx
+++ b/app/uniqueName.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mai" r:id="rId3" sheetId="1"/>
+    <sheet name="June" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -23,7 +23,7 @@
     <t>SuperFIrm - skdjfnsdjkfsdn</t>
   </si>
   <si>
-    <t>Loooooong word - mai</t>
+    <t>Loooooong word - June</t>
   </si>
   <si>
     <t>SUM</t>
@@ -295,16 +295,16 @@
     </row>
     <row r="9">
       <c r="D9" s="5" t="n">
-        <v>43221.92028344907</v>
+        <v>43252.61947651621</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>43191.04180167824</v>
+        <v>43221.04168313657</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>43191.96194056713</v>
+        <v>43221.99446091435</v>
       </c>
       <c r="G9" t="n" s="7">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="H9" t="n" s="7">
         <v>0.0</v>
@@ -319,22 +319,22 @@
         <v>0.0</v>
       </c>
       <c r="L9" t="n" s="7">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="M9" s="7"/>
     </row>
     <row r="10">
       <c r="D10" s="5" t="n">
-        <v>43222.920283657404</v>
+        <v>43253.61947677084</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>43192.08346873843</v>
+        <v>43222.08335040509</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43192.961940960646</v>
+        <v>43222.9944615162</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="H10" t="n" s="7">
         <v>0.0</v>
@@ -349,22 +349,22 @@
         <v>0.0</v>
       </c>
       <c r="L10" t="n" s="7">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="M10" s="7"/>
     </row>
     <row r="11">
       <c r="D11" s="5" t="n">
-        <v>43223.920283680556</v>
+        <v>43254.61947680556</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43193.12513540509</v>
+        <v>43223.12501707176</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>43193.961940960646</v>
+        <v>43223.9944615162</v>
       </c>
       <c r="G11" t="n" s="7">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H11" t="n" s="7">
         <v>0.0</v>
@@ -379,22 +379,22 @@
         <v>0.0</v>
       </c>
       <c r="L11" t="n" s="7">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="M11" s="7"/>
     </row>
     <row r="12">
       <c r="D12" s="5" t="n">
-        <v>43224.92028371528</v>
+        <v>43255.61947684028</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>43194.16680207176</v>
+        <v>43224.166683738425</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>43194.961940960646</v>
+        <v>43224.9944615162</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="H12" t="n" s="7">
         <v>0.0</v>
@@ -409,22 +409,22 @@
         <v>0.0</v>
       </c>
       <c r="L12" t="n" s="7">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="M12" s="7"/>
     </row>
     <row r="13">
       <c r="D13" s="5" t="n">
-        <v>43225.92028373843</v>
+        <v>43256.61947686342</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>43195.20846873843</v>
+        <v>43225.20835040509</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>43195.961940960646</v>
+        <v>43225.9944615162</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="H13" t="n" s="7">
         <v>0.0</v>
@@ -439,22 +439,22 @@
         <v>0.0</v>
       </c>
       <c r="L13" t="n" s="7">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="M13" s="7"/>
     </row>
     <row r="14">
       <c r="D14" s="5" t="n">
-        <v>43226.920283761574</v>
+        <v>43257.61947689815</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43196.25013540509</v>
+        <v>43226.25001707176</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>43196.961940960646</v>
+        <v>43226.9944615162</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="H14" t="n" s="7">
         <v>0.0</v>
@@ -469,22 +469,22 @@
         <v>0.0</v>
       </c>
       <c r="L14" t="n" s="7">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="M14" s="7"/>
     </row>
     <row r="15">
       <c r="D15" s="5" t="n">
-        <v>43227.92028378472</v>
+        <v>43258.619476921296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43197.29180207176</v>
+        <v>43227.291683738425</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43197.961940960646</v>
+        <v>43227.9944615162</v>
       </c>
       <c r="G15" t="n" s="7">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="H15" t="n" s="7">
         <v>0.0</v>
@@ -499,22 +499,22 @@
         <v>0.0</v>
       </c>
       <c r="L15" t="n" s="7">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="M15" s="7"/>
     </row>
     <row r="16">
       <c r="D16" s="5" t="n">
-        <v>43228.92028380787</v>
+        <v>43259.61947695602</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>43198.33346875</v>
+        <v>43228.33335040509</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>43198.96194097222</v>
+        <v>43228.9944615162</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H16" t="n" s="7">
         <v>0.0</v>
@@ -529,22 +529,22 @@
         <v>0.0</v>
       </c>
       <c r="L16" t="n" s="7">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="M16" s="7"/>
     </row>
     <row r="17">
       <c r="D17" s="5" t="n">
-        <v>43229.920283831016</v>
+        <v>43260.61947697917</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>43199.37513541667</v>
+        <v>43229.37501707176</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>43199.96194097222</v>
+        <v>43229.9944615162</v>
       </c>
       <c r="G17" t="n" s="7">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H17" t="n" s="7">
         <v>0.0</v>
@@ -559,22 +559,22 @@
         <v>0.0</v>
       </c>
       <c r="L17" t="n" s="7">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="M17" s="7"/>
     </row>
     <row r="18">
       <c r="D18" s="5" t="n">
-        <v>43230.92028385417</v>
+        <v>43261.619477002314</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43200.41680208333</v>
+        <v>43230.416683738425</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>43200.96194097222</v>
+        <v>43230.9944615162</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H18" t="n" s="7">
         <v>0.0</v>
@@ -589,22 +589,22 @@
         <v>0.0</v>
       </c>
       <c r="L18" t="n" s="7">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="M18" s="7"/>
     </row>
     <row r="19">
       <c r="D19" s="5" t="n">
-        <v>43231.92028387731</v>
+        <v>43262.619477037035</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43201.45846875</v>
+        <v>43231.45835040509</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>43201.96194097222</v>
+        <v>43231.9944615162</v>
       </c>
       <c r="G19" t="n" s="7">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H19" t="n" s="7">
         <v>0.0</v>
@@ -619,22 +619,22 @@
         <v>0.0</v>
       </c>
       <c r="L19" t="n" s="7">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="M19" s="7"/>
     </row>
     <row r="20">
       <c r="D20" s="5" t="n">
-        <v>43232.920283900465</v>
+        <v>43263.61947706019</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>43202.50013541667</v>
+        <v>43232.50001707176</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>43202.96194097222</v>
+        <v>43232.9944615162</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H20" t="n" s="7">
         <v>0.0</v>
@@ -649,22 +649,22 @@
         <v>0.0</v>
       </c>
       <c r="L20" t="n" s="7">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M20" s="7"/>
     </row>
     <row r="21">
       <c r="D21" s="5" t="n">
-        <v>43233.92028392361</v>
+        <v>43264.61947708333</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>43203.54180208333</v>
+        <v>43233.541683738425</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>43203.96194097222</v>
+        <v>43233.9944615162</v>
       </c>
       <c r="G21" t="n" s="7">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H21" t="n" s="7">
         <v>0.0</v>
@@ -679,22 +679,22 @@
         <v>0.0</v>
       </c>
       <c r="L21" t="n" s="7">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M21" s="7"/>
     </row>
     <row r="22">
       <c r="D22" s="5" t="n">
-        <v>43234.92028394676</v>
+        <v>43265.619477106484</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>43204.58346875</v>
+        <v>43234.58335040509</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>43204.96194097222</v>
+        <v>43234.9944615162</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H22" t="n" s="7">
         <v>0.0</v>
@@ -709,22 +709,22 @@
         <v>0.0</v>
       </c>
       <c r="L22" t="n" s="7">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="M22" s="7"/>
     </row>
     <row r="23">
       <c r="D23" s="5" t="n">
-        <v>43235.92028395833</v>
+        <v>43266.61947712963</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43205.62513541667</v>
+        <v>43235.62501707176</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43205.96194097222</v>
+        <v>43235.9944615162</v>
       </c>
       <c r="G23" t="n" s="7">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H23" t="n" s="7">
         <v>0.0</v>
@@ -739,22 +739,22 @@
         <v>0.0</v>
       </c>
       <c r="L23" t="n" s="7">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="M23" s="7"/>
     </row>
     <row r="24">
       <c r="D24" s="5" t="n">
-        <v>43236.92028398148</v>
+        <v>43267.61947715278</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>43206.66680208333</v>
+        <v>43236.666683738425</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>43206.96194097222</v>
+        <v>43236.9944615162</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H24" t="n" s="7">
         <v>0.0</v>
@@ -769,22 +769,22 @@
         <v>0.0</v>
       </c>
       <c r="L24" t="n" s="7">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="M24" s="7"/>
     </row>
     <row r="25">
       <c r="D25" s="5" t="n">
-        <v>43237.92028400463</v>
+        <v>43268.619477175926</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>43207.70846875</v>
+        <v>43237.70835040509</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>43207.96194097222</v>
+        <v>43237.9944615162</v>
       </c>
       <c r="G25" t="n" s="7">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H25" t="n" s="7">
         <v>0.0</v>
@@ -799,22 +799,22 @@
         <v>0.0</v>
       </c>
       <c r="L25" t="n" s="7">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="M25" s="7"/>
     </row>
     <row r="26">
       <c r="D26" s="5" t="n">
-        <v>43238.9202840162</v>
+        <v>43269.61947719908</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>43208.75013541667</v>
+        <v>43238.75001708333</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>43208.96194097222</v>
+        <v>43238.99446152778</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H26" t="n" s="7">
         <v>0.0</v>
@@ -829,22 +829,22 @@
         <v>0.0</v>
       </c>
       <c r="L26" t="n" s="7">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="M26" s="7"/>
     </row>
     <row r="27">
       <c r="D27" s="5" t="n">
-        <v>43239.920284039355</v>
+        <v>43270.61947722222</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>43209.79180208333</v>
+        <v>43239.79168375</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43209.96194097222</v>
+        <v>43239.99446152778</v>
       </c>
       <c r="G27" t="n" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H27" t="n" s="7">
         <v>0.0</v>
@@ -859,7 +859,7 @@
         <v>0.0</v>
       </c>
       <c r="L27" t="n" s="7">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="M27" s="7"/>
     </row>
